--- a/inst/data-misc/bank_list.xlsx
+++ b/inst/data-misc/bank_list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\cbspeeches\inst\data-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18783CD-FE2A-466B-AFC2-5374D010CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC7673-9864-491E-B97F-F02BCA07AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{65458FD6-98B5-4D9F-8D73-A080B4A05CD5}"/>
+    <workbookView xWindow="8865" yWindow="4260" windowWidth="28800" windowHeight="15345" xr2:uid="{65458FD6-98B5-4D9F-8D73-A080B4A05CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="country_AE" localSheetId="0">Sheet1!$A$170</definedName>
+    <definedName name="country_AE" localSheetId="0">Sheet1!$A$169</definedName>
     <definedName name="country_AF" localSheetId="0">Sheet1!$A$2</definedName>
     <definedName name="country_AL" localSheetId="0">Sheet1!$A$3</definedName>
     <definedName name="country_AM" localSheetId="0">Sheet1!$A$7</definedName>
@@ -48,8 +48,8 @@
     <definedName name="country_CD" localSheetId="0">Sheet1!$A$41</definedName>
     <definedName name="country_CF" localSheetId="0">Sheet1!$A$35</definedName>
     <definedName name="country_CG" localSheetId="0">Sheet1!$A$40</definedName>
-    <definedName name="country_CH" localSheetId="0">Sheet1!$A$157</definedName>
-    <definedName name="country_CI" localSheetId="0">Sheet1!$A$83</definedName>
+    <definedName name="country_CH" localSheetId="0">Sheet1!$A$156</definedName>
+    <definedName name="country_CI" localSheetId="0">Sheet1!$A$82</definedName>
     <definedName name="country_CL" localSheetId="0">Sheet1!$A$37</definedName>
     <definedName name="country_CM" localSheetId="0">Sheet1!$A$31</definedName>
     <definedName name="country_CN" localSheetId="0">Sheet1!$A$38</definedName>
@@ -60,139 +60,139 @@
     <definedName name="country_CV" localSheetId="0">Sheet1!$A$33</definedName>
     <definedName name="country_CY" localSheetId="0">Sheet1!$A$46</definedName>
     <definedName name="country_CZ" localSheetId="0">Sheet1!$A$47</definedName>
-    <definedName name="country_DE" localSheetId="0">Sheet1!$A$64</definedName>
+    <definedName name="country_DE" localSheetId="0">Sheet1!$A$63</definedName>
     <definedName name="country_DK" localSheetId="0">Sheet1!$A$48</definedName>
     <definedName name="country_DO" localSheetId="0">Sheet1!$A$49</definedName>
     <definedName name="country_DZ" localSheetId="0">Sheet1!$A$4</definedName>
     <definedName name="country_EC" localSheetId="0">Sheet1!$A$50</definedName>
     <definedName name="country_EE" localSheetId="0">Sheet1!$A$54</definedName>
     <definedName name="country_EG" localSheetId="0">Sheet1!$A$51</definedName>
-    <definedName name="country_ES" localSheetId="0">Sheet1!$A$152</definedName>
+    <definedName name="country_ES" localSheetId="0">Sheet1!$A$151</definedName>
     <definedName name="country_ET" localSheetId="0">Sheet1!$A$56</definedName>
-    <definedName name="country_EU" localSheetId="0">Sheet1!$A$57</definedName>
-    <definedName name="country_FI" localSheetId="0">Sheet1!$A$59</definedName>
-    <definedName name="country_FJ" localSheetId="0">Sheet1!$A$58</definedName>
-    <definedName name="country_FR" localSheetId="0">Sheet1!$A$60</definedName>
-    <definedName name="country_GA" localSheetId="0">Sheet1!$A$61</definedName>
-    <definedName name="country_GB" localSheetId="0">Sheet1!$A$171</definedName>
-    <definedName name="country_GE" localSheetId="0">Sheet1!$A$63</definedName>
-    <definedName name="country_GH" localSheetId="0">Sheet1!$A$65</definedName>
-    <definedName name="country_GM" localSheetId="0">Sheet1!$A$62</definedName>
-    <definedName name="country_GN" localSheetId="0">Sheet1!$A$68</definedName>
+    <definedName name="country_EU" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="country_FI" localSheetId="0">Sheet1!$A$58</definedName>
+    <definedName name="country_FJ" localSheetId="0">Sheet1!$A$57</definedName>
+    <definedName name="country_FR" localSheetId="0">Sheet1!$A$59</definedName>
+    <definedName name="country_GA" localSheetId="0">Sheet1!$A$60</definedName>
+    <definedName name="country_GB" localSheetId="0">Sheet1!$A$170</definedName>
+    <definedName name="country_GE" localSheetId="0">Sheet1!$A$62</definedName>
+    <definedName name="country_GH" localSheetId="0">Sheet1!$A$64</definedName>
+    <definedName name="country_GM" localSheetId="0">Sheet1!$A$61</definedName>
+    <definedName name="country_GN" localSheetId="0">Sheet1!$A$67</definedName>
     <definedName name="country_GQ" localSheetId="0">Sheet1!$A$53</definedName>
-    <definedName name="country_GR" localSheetId="0">Sheet1!$A$66</definedName>
-    <definedName name="country_GT" localSheetId="0">Sheet1!$A$67</definedName>
-    <definedName name="country_GW" localSheetId="0">Sheet1!$A$69</definedName>
-    <definedName name="country_GY" localSheetId="0">Sheet1!$A$70</definedName>
-    <definedName name="country_HK" localSheetId="0">Sheet1!$A$73</definedName>
-    <definedName name="country_HN" localSheetId="0">Sheet1!$A$72</definedName>
+    <definedName name="country_GR" localSheetId="0">Sheet1!$A$65</definedName>
+    <definedName name="country_GT" localSheetId="0">Sheet1!$A$66</definedName>
+    <definedName name="country_GW" localSheetId="0">Sheet1!$A$68</definedName>
+    <definedName name="country_GY" localSheetId="0">Sheet1!$A$69</definedName>
+    <definedName name="country_HK" localSheetId="0">Sheet1!$A$72</definedName>
+    <definedName name="country_HN" localSheetId="0">Sheet1!$A$71</definedName>
     <definedName name="country_HR" localSheetId="0">Sheet1!$A$43</definedName>
-    <definedName name="country_HT" localSheetId="0">Sheet1!$A$71</definedName>
-    <definedName name="country_HU" localSheetId="0">Sheet1!$A$74</definedName>
-    <definedName name="country_ID" localSheetId="0">Sheet1!$A$77</definedName>
-    <definedName name="country_IE" localSheetId="0">Sheet1!$A$80</definedName>
-    <definedName name="country_IL" localSheetId="0">Sheet1!$A$81</definedName>
-    <definedName name="country_IN" localSheetId="0">Sheet1!$A$76</definedName>
-    <definedName name="country_IQ" localSheetId="0">Sheet1!$A$79</definedName>
-    <definedName name="country_IR" localSheetId="0">Sheet1!$A$78</definedName>
-    <definedName name="country_IS" localSheetId="0">Sheet1!$A$75</definedName>
-    <definedName name="country_IT" localSheetId="0">Sheet1!$A$82</definedName>
-    <definedName name="country_JM" localSheetId="0">Sheet1!$A$84</definedName>
-    <definedName name="country_JO" localSheetId="0">Sheet1!$A$86</definedName>
-    <definedName name="country_JP" localSheetId="0">Sheet1!$A$85</definedName>
-    <definedName name="country_KE" localSheetId="0">Sheet1!$A$88</definedName>
-    <definedName name="country_KG" localSheetId="0">Sheet1!$A$92</definedName>
+    <definedName name="country_HT" localSheetId="0">Sheet1!$A$70</definedName>
+    <definedName name="country_HU" localSheetId="0">Sheet1!$A$73</definedName>
+    <definedName name="country_ID" localSheetId="0">Sheet1!$A$76</definedName>
+    <definedName name="country_IE" localSheetId="0">Sheet1!$A$79</definedName>
+    <definedName name="country_IL" localSheetId="0">Sheet1!$A$80</definedName>
+    <definedName name="country_IN" localSheetId="0">Sheet1!$A$75</definedName>
+    <definedName name="country_IQ" localSheetId="0">Sheet1!$A$78</definedName>
+    <definedName name="country_IR" localSheetId="0">Sheet1!$A$77</definedName>
+    <definedName name="country_IS" localSheetId="0">Sheet1!$A$74</definedName>
+    <definedName name="country_IT" localSheetId="0">Sheet1!$A$81</definedName>
+    <definedName name="country_JM" localSheetId="0">Sheet1!$A$83</definedName>
+    <definedName name="country_JO" localSheetId="0">Sheet1!$A$85</definedName>
+    <definedName name="country_JP" localSheetId="0">Sheet1!$A$84</definedName>
+    <definedName name="country_KE" localSheetId="0">Sheet1!$A$87</definedName>
+    <definedName name="country_KG" localSheetId="0">Sheet1!$A$91</definedName>
     <definedName name="country_KH" localSheetId="0">Sheet1!$A$30</definedName>
-    <definedName name="country_KR" localSheetId="0">Sheet1!$A$89</definedName>
-    <definedName name="country_KV" localSheetId="0">Sheet1!$A$90</definedName>
-    <definedName name="country_KW" localSheetId="0">Sheet1!$A$91</definedName>
+    <definedName name="country_KR" localSheetId="0">Sheet1!$A$88</definedName>
+    <definedName name="country_KV" localSheetId="0">Sheet1!$A$89</definedName>
+    <definedName name="country_KW" localSheetId="0">Sheet1!$A$90</definedName>
     <definedName name="country_KY" localSheetId="0">Sheet1!$A$34</definedName>
-    <definedName name="country_KZ" localSheetId="0">Sheet1!$A$87</definedName>
-    <definedName name="country_LA" localSheetId="0">Sheet1!$A$93</definedName>
-    <definedName name="country_LB" localSheetId="0">Sheet1!$A$95</definedName>
-    <definedName name="country_LK" localSheetId="0">Sheet1!$A$153</definedName>
-    <definedName name="country_LR" localSheetId="0">Sheet1!$A$97</definedName>
-    <definedName name="country_LS" localSheetId="0">Sheet1!$A$96</definedName>
-    <definedName name="country_LT" localSheetId="0">Sheet1!$A$99</definedName>
-    <definedName name="country_LU" localSheetId="0">Sheet1!$A$100</definedName>
-    <definedName name="country_LV" localSheetId="0">Sheet1!$A$94</definedName>
-    <definedName name="country_LY" localSheetId="0">Sheet1!$A$98</definedName>
-    <definedName name="country_MA" localSheetId="0">Sheet1!$A$113</definedName>
-    <definedName name="country_MD" localSheetId="0">Sheet1!$A$110</definedName>
-    <definedName name="country_ME" localSheetId="0">Sheet1!$A$112</definedName>
-    <definedName name="country_MG" localSheetId="0">Sheet1!$A$102</definedName>
-    <definedName name="country_MK" localSheetId="0">Sheet1!$A$123</definedName>
-    <definedName name="country_ML" localSheetId="0">Sheet1!$A$106</definedName>
-    <definedName name="country_MM" localSheetId="0">Sheet1!$A$115</definedName>
-    <definedName name="country_MN" localSheetId="0">Sheet1!$A$111</definedName>
-    <definedName name="country_MO" localSheetId="0">Sheet1!$A$101</definedName>
-    <definedName name="country_MT" localSheetId="0">Sheet1!$A$107</definedName>
-    <definedName name="country_MU" localSheetId="0">Sheet1!$A$108</definedName>
-    <definedName name="country_MV" localSheetId="0">Sheet1!$A$105</definedName>
-    <definedName name="country_MW" localSheetId="0">Sheet1!$A$103</definedName>
-    <definedName name="country_MX" localSheetId="0">Sheet1!$A$109</definedName>
-    <definedName name="country_MY" localSheetId="0">Sheet1!$A$104</definedName>
-    <definedName name="country_MZ" localSheetId="0">Sheet1!$A$114</definedName>
-    <definedName name="country_NA" localSheetId="0">Sheet1!$A$116</definedName>
-    <definedName name="country_NE" localSheetId="0">Sheet1!$A$121</definedName>
-    <definedName name="country_NG" localSheetId="0">Sheet1!$A$122</definedName>
-    <definedName name="country_NI" localSheetId="0">Sheet1!$A$120</definedName>
-    <definedName name="country_NL" localSheetId="0">Sheet1!$A$118</definedName>
-    <definedName name="country_NO" localSheetId="0">Sheet1!$A$124</definedName>
-    <definedName name="country_NP" localSheetId="0">Sheet1!$A$117</definedName>
-    <definedName name="country_NZ" localSheetId="0">Sheet1!$A$119</definedName>
-    <definedName name="country_OE" localSheetId="0">Sheet1!$A$126</definedName>
-    <definedName name="country_OM" localSheetId="0">Sheet1!$A$125</definedName>
-    <definedName name="country_PA" localSheetId="0">Sheet1!$A$129</definedName>
-    <definedName name="country_PE" localSheetId="0">Sheet1!$A$132</definedName>
-    <definedName name="country_PG" localSheetId="0">Sheet1!$A$130</definedName>
-    <definedName name="country_PH" localSheetId="0">Sheet1!$A$133</definedName>
-    <definedName name="country_PK" localSheetId="0">Sheet1!$A$127</definedName>
-    <definedName name="country_PL" localSheetId="0">Sheet1!$A$134</definedName>
-    <definedName name="country_PS" localSheetId="0">Sheet1!$A$128</definedName>
-    <definedName name="country_PT" localSheetId="0">Sheet1!$A$135</definedName>
-    <definedName name="country_PY" localSheetId="0">Sheet1!$A$131</definedName>
-    <definedName name="country_QA" localSheetId="0">Sheet1!$A$136</definedName>
-    <definedName name="country_RO" localSheetId="0">Sheet1!$A$137</definedName>
-    <definedName name="country_RS" localSheetId="0">Sheet1!$A$144</definedName>
-    <definedName name="country_RU" localSheetId="0">Sheet1!$A$138</definedName>
-    <definedName name="country_RW" localSheetId="0">Sheet1!$A$139</definedName>
-    <definedName name="country_SA" localSheetId="0">Sheet1!$A$142</definedName>
-    <definedName name="country_SB" localSheetId="0">Sheet1!$A$150</definedName>
-    <definedName name="country_SC" localSheetId="0">Sheet1!$A$145</definedName>
-    <definedName name="country_SD" localSheetId="0">Sheet1!$A$154</definedName>
-    <definedName name="country_SE" localSheetId="0">Sheet1!$A$156</definedName>
-    <definedName name="country_SG" localSheetId="0">Sheet1!$A$147</definedName>
-    <definedName name="country_SI" localSheetId="0">Sheet1!$A$149</definedName>
-    <definedName name="country_SK" localSheetId="0">Sheet1!$A$148</definedName>
-    <definedName name="country_SL" localSheetId="0">Sheet1!$A$146</definedName>
-    <definedName name="country_SM" localSheetId="0">Sheet1!$A$141</definedName>
-    <definedName name="country_SN" localSheetId="0">Sheet1!$A$143</definedName>
-    <definedName name="country_SR" localSheetId="0">Sheet1!$A$155</definedName>
+    <definedName name="country_KZ" localSheetId="0">Sheet1!$A$86</definedName>
+    <definedName name="country_LA" localSheetId="0">Sheet1!$A$92</definedName>
+    <definedName name="country_LB" localSheetId="0">Sheet1!$A$94</definedName>
+    <definedName name="country_LK" localSheetId="0">Sheet1!$A$152</definedName>
+    <definedName name="country_LR" localSheetId="0">Sheet1!$A$96</definedName>
+    <definedName name="country_LS" localSheetId="0">Sheet1!$A$95</definedName>
+    <definedName name="country_LT" localSheetId="0">Sheet1!$A$98</definedName>
+    <definedName name="country_LU" localSheetId="0">Sheet1!$A$99</definedName>
+    <definedName name="country_LV" localSheetId="0">Sheet1!$A$93</definedName>
+    <definedName name="country_LY" localSheetId="0">Sheet1!$A$97</definedName>
+    <definedName name="country_MA" localSheetId="0">Sheet1!$A$112</definedName>
+    <definedName name="country_MD" localSheetId="0">Sheet1!$A$109</definedName>
+    <definedName name="country_ME" localSheetId="0">Sheet1!$A$111</definedName>
+    <definedName name="country_MG" localSheetId="0">Sheet1!$A$101</definedName>
+    <definedName name="country_MK" localSheetId="0">Sheet1!$A$122</definedName>
+    <definedName name="country_ML" localSheetId="0">Sheet1!$A$105</definedName>
+    <definedName name="country_MM" localSheetId="0">Sheet1!$A$114</definedName>
+    <definedName name="country_MN" localSheetId="0">Sheet1!$A$110</definedName>
+    <definedName name="country_MO" localSheetId="0">Sheet1!$A$100</definedName>
+    <definedName name="country_MT" localSheetId="0">Sheet1!$A$106</definedName>
+    <definedName name="country_MU" localSheetId="0">Sheet1!$A$107</definedName>
+    <definedName name="country_MV" localSheetId="0">Sheet1!$A$104</definedName>
+    <definedName name="country_MW" localSheetId="0">Sheet1!$A$102</definedName>
+    <definedName name="country_MX" localSheetId="0">Sheet1!$A$108</definedName>
+    <definedName name="country_MY" localSheetId="0">Sheet1!$A$103</definedName>
+    <definedName name="country_MZ" localSheetId="0">Sheet1!$A$113</definedName>
+    <definedName name="country_NA" localSheetId="0">Sheet1!$A$115</definedName>
+    <definedName name="country_NE" localSheetId="0">Sheet1!$A$120</definedName>
+    <definedName name="country_NG" localSheetId="0">Sheet1!$A$121</definedName>
+    <definedName name="country_NI" localSheetId="0">Sheet1!$A$119</definedName>
+    <definedName name="country_NL" localSheetId="0">Sheet1!$A$117</definedName>
+    <definedName name="country_NO" localSheetId="0">Sheet1!$A$123</definedName>
+    <definedName name="country_NP" localSheetId="0">Sheet1!$A$116</definedName>
+    <definedName name="country_NZ" localSheetId="0">Sheet1!$A$118</definedName>
+    <definedName name="country_OE" localSheetId="0">Sheet1!$A$125</definedName>
+    <definedName name="country_OM" localSheetId="0">Sheet1!$A$124</definedName>
+    <definedName name="country_PA" localSheetId="0">Sheet1!$A$128</definedName>
+    <definedName name="country_PE" localSheetId="0">Sheet1!$A$131</definedName>
+    <definedName name="country_PG" localSheetId="0">Sheet1!$A$129</definedName>
+    <definedName name="country_PH" localSheetId="0">Sheet1!$A$132</definedName>
+    <definedName name="country_PK" localSheetId="0">Sheet1!$A$126</definedName>
+    <definedName name="country_PL" localSheetId="0">Sheet1!$A$133</definedName>
+    <definedName name="country_PS" localSheetId="0">Sheet1!$A$127</definedName>
+    <definedName name="country_PT" localSheetId="0">Sheet1!$A$134</definedName>
+    <definedName name="country_PY" localSheetId="0">Sheet1!$A$130</definedName>
+    <definedName name="country_QA" localSheetId="0">Sheet1!$A$135</definedName>
+    <definedName name="country_RO" localSheetId="0">Sheet1!$A$136</definedName>
+    <definedName name="country_RS" localSheetId="0">Sheet1!$A$143</definedName>
+    <definedName name="country_RU" localSheetId="0">Sheet1!$A$137</definedName>
+    <definedName name="country_RW" localSheetId="0">Sheet1!$A$138</definedName>
+    <definedName name="country_SA" localSheetId="0">Sheet1!$A$141</definedName>
+    <definedName name="country_SB" localSheetId="0">Sheet1!$A$149</definedName>
+    <definedName name="country_SC" localSheetId="0">Sheet1!$A$144</definedName>
+    <definedName name="country_SD" localSheetId="0">Sheet1!$A$153</definedName>
+    <definedName name="country_SE" localSheetId="0">Sheet1!$A$155</definedName>
+    <definedName name="country_SG" localSheetId="0">Sheet1!$A$146</definedName>
+    <definedName name="country_SI" localSheetId="0">Sheet1!$A$148</definedName>
+    <definedName name="country_SK" localSheetId="0">Sheet1!$A$147</definedName>
+    <definedName name="country_SL" localSheetId="0">Sheet1!$A$145</definedName>
+    <definedName name="country_SM" localSheetId="0">Sheet1!$A$140</definedName>
+    <definedName name="country_SN" localSheetId="0">Sheet1!$A$142</definedName>
+    <definedName name="country_SR" localSheetId="0">Sheet1!$A$154</definedName>
     <definedName name="country_SV" localSheetId="0">Sheet1!$A$52</definedName>
-    <definedName name="country_SY" localSheetId="0">Sheet1!$A$158</definedName>
+    <definedName name="country_SY" localSheetId="0">Sheet1!$A$157</definedName>
     <definedName name="country_SZ" localSheetId="0">Sheet1!$A$55</definedName>
     <definedName name="country_TD" localSheetId="0">Sheet1!$A$36</definedName>
-    <definedName name="country_TG" localSheetId="0">Sheet1!$A$162</definedName>
-    <definedName name="country_TH" localSheetId="0">Sheet1!$A$161</definedName>
-    <definedName name="country_TJ" localSheetId="0">Sheet1!$A$159</definedName>
-    <definedName name="country_TM" localSheetId="0">Sheet1!$A$167</definedName>
-    <definedName name="country_TN" localSheetId="0">Sheet1!$A$165</definedName>
-    <definedName name="country_TO" localSheetId="0">Sheet1!$A$163</definedName>
-    <definedName name="country_TR" localSheetId="0">Sheet1!$A$166</definedName>
-    <definedName name="country_TT" localSheetId="0">Sheet1!$A$164</definedName>
-    <definedName name="country_TZ" localSheetId="0">Sheet1!$A$160</definedName>
-    <definedName name="country_UA" localSheetId="0">Sheet1!$A$169</definedName>
-    <definedName name="country_UG" localSheetId="0">Sheet1!$A$168</definedName>
-    <definedName name="country_US" localSheetId="0">Sheet1!$A$172</definedName>
+    <definedName name="country_TG" localSheetId="0">Sheet1!$A$161</definedName>
+    <definedName name="country_TH" localSheetId="0">Sheet1!$A$160</definedName>
+    <definedName name="country_TJ" localSheetId="0">Sheet1!$A$158</definedName>
+    <definedName name="country_TM" localSheetId="0">Sheet1!$A$166</definedName>
+    <definedName name="country_TN" localSheetId="0">Sheet1!$A$164</definedName>
+    <definedName name="country_TO" localSheetId="0">Sheet1!$A$162</definedName>
+    <definedName name="country_TR" localSheetId="0">Sheet1!$A$165</definedName>
+    <definedName name="country_TT" localSheetId="0">Sheet1!$A$163</definedName>
+    <definedName name="country_TZ" localSheetId="0">Sheet1!$A$159</definedName>
+    <definedName name="country_UA" localSheetId="0">Sheet1!$A$168</definedName>
+    <definedName name="country_UG" localSheetId="0">Sheet1!$A$167</definedName>
+    <definedName name="country_US" localSheetId="0">Sheet1!$A$171</definedName>
     <definedName name="country_UY" localSheetId="0">Sheet1!$A$185</definedName>
     <definedName name="country_UZ" localSheetId="0">Sheet1!$A$186</definedName>
     <definedName name="country_VE" localSheetId="0">Sheet1!$A$188</definedName>
     <definedName name="country_VN" localSheetId="0">Sheet1!$A$189</definedName>
     <definedName name="country_VU" localSheetId="0">Sheet1!$A$187</definedName>
-    <definedName name="country_WS" localSheetId="0">Sheet1!$A$140</definedName>
+    <definedName name="country_WS" localSheetId="0">Sheet1!$A$139</definedName>
     <definedName name="country_YE" localSheetId="0">Sheet1!$A$190</definedName>
-    <definedName name="country_ZA" localSheetId="0">Sheet1!$A$151</definedName>
+    <definedName name="country_ZA" localSheetId="0">Sheet1!$A$150</definedName>
     <definedName name="country_ZM" localSheetId="0">Sheet1!$A$191</definedName>
     <definedName name="country_ZW" localSheetId="0">Sheet1!$A$192</definedName>
     <definedName name="letter_A" localSheetId="0">Sheet1!$A$1</definedName>
@@ -241,203 +241,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="375">
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Bank of Afghanistan</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Bank of Albania</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
-    <t>Bank of Algeria</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>National Bank of Angola</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Central Bank of Argentina</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Central Bank of Armenia</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
-    <t>Central Bank of Aruba</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Reserve Bank of Australia</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Oesterreichische Nationalbank, the Austrian Central Bank</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>The Central Bank of the Republic of Azerbaijan</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Central Bank of The Bahamas</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Central Bank of Bahrain</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Bangladesh Bank</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Central Bank of Barbados</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
-    <t>National Bank of the Republic of Belarus</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>National Bank of Belgium</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
-    <t>Central Bank of Belize</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Central Bank of West African States (BCEAO)</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Bermuda Monetary Authority</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Royal Monetary Authority of Bhutan</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
-    <t>Central Bank of Bolivia</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Central Bank of Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
-    <t>Bank of Botswana</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Central Bank of Brazil</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Brunei Darussalam Central Bank</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Bulgarian National Bank</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>Bank of the Republic of Burundi</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>National Bank of Cambodia</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Bank of Central African States</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Bank of Canada</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Bank of Cape Verde</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>Cayman Islands Monetary Authority</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
@@ -447,880 +351,1021 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>Central Bank of Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
-    <t>The People's Bank of China</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>Central Bank of Colombia</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
     <t>Congo, the Democratic Republic of the</t>
   </si>
   <si>
-    <t>Central Bank of Congo</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Central Bank of Costa Rica</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Croatian National Bank</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Central Bank of Cuba</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Central Bank of Curaçao and Sint Maarten</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Central Bank of Cyprus</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czech National Bank</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Danmarks Nationalbank</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Central Bank of the Dominican Republic</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Central Bank of Ecuador</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>Central Bank of Egypt</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Central Reserve Bank of El Salvador</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>Bank of Estonia</t>
-  </si>
-  <si>
     <t>Eswatini</t>
   </si>
   <si>
-    <t>The Central Bank of Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>National Bank of Ethiopia</t>
-  </si>
-  <si>
-    <t>Euro area</t>
-  </si>
-  <si>
-    <t>European Central Bank</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
-    <t>Reserve Bank of Fiji</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>Bank of Finland</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
-    <t>Bank of France</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
     <t>Gambia, The</t>
   </si>
   <si>
-    <t>Central Bank of The Gambia</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>National Bank of Georgia</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Deutsche Bundesbank</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Bank of Ghana</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
-    <t>Bank of Greece</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Bank of Guatemala</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Central Bank of the Republic of Guinea</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Guyana</t>
   </si>
   <si>
-    <t>Bank of Guyana</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
-    <t>Bank of the Republic of Haiti</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Central Bank of Honduras</t>
-  </si>
-  <si>
     <t>Hong Kong SAR</t>
   </si>
   <si>
-    <t>Hong Kong Monetary Authority</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>Magyar Nemzeti Bank</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Central Bank of Iceland</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Reserve Bank of India</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Bank Indonesia</t>
-  </si>
-  <si>
     <t>Iran, Islamic Republic of</t>
   </si>
   <si>
-    <t>The Central Bank of the Islamic Republic of Iran</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>Central Bank of Iraq</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>Central Bank of Ireland</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>Bank of Israel</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Bank of Italy</t>
-  </si>
-  <si>
     <t>Ivory Coast</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Bank of Jamaica</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Bank of Japan</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Central Bank of Jordan</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>National Bank of Kazakhstan</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>Central Bank of Kenya</t>
-  </si>
-  <si>
     <t>Korea, Republic of</t>
   </si>
   <si>
-    <t>Bank of Korea</t>
-  </si>
-  <si>
     <t>Kosovo</t>
   </si>
   <si>
-    <t>Central Bank of the Republic of Kosovo</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Central Bank of Kuwait</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>National Bank of the Kyrgyz Republic</t>
-  </si>
-  <si>
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>Bank of the Lao PDR</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Bank of Latvia</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
-    <t>Central Bank of Lebanon</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Central Bank of Lesotho</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Central Bank of Liberia</t>
-  </si>
-  <si>
     <t>Libya, State of</t>
   </si>
   <si>
-    <t>Central Bank of Libya</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Bank of Lithuania</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Central Bank of Luxembourg</t>
-  </si>
-  <si>
     <t>Macao SAR</t>
   </si>
   <si>
-    <t>Monetary Authority of Macao</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Banky Foiben'i Madagasikara</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Reserve Bank of Malawi</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Central Bank of Malaysia</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>Maldives Monetary Authority</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Malta</t>
   </si>
   <si>
-    <t>Central Bank of Malta</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Bank of Mauritius</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Bank of Mexico</t>
-  </si>
-  <si>
     <t>Moldova, Republic of</t>
   </si>
   <si>
-    <t>National Bank of Moldova</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Bank of Mongolia</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Central Bank of Montenegro</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
-    <t>Bank Al-Maghrib (Central Bank of Morocco)</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Bank of Mozambique</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Central Bank of Myanmar</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Bank of Namibia</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
-    <t>Central Bank of Nepal (Nepal Rastra Bank)</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>De Nederlandsche Bank</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Reserve Bank of New Zealand</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>Central Bank of Nicaragua</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
     <t>Nigeria</t>
   </si>
   <si>
-    <t>Central Bank of Nigeria</t>
-  </si>
-  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
-    <t>National Bank of the Republic of North Macedonia</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>Central Bank of Norway</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
-    <t>Central Bank of Oman</t>
-  </si>
-  <si>
     <t>Organization of Eastern Caribbean States (OECS)</t>
   </si>
   <si>
-    <t>Eastern Caribbean Central Bank</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>State Bank of Pakistan</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
-    <t>Palestine Monetary Authority</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>National Bank of Panama (Banco Nacional de Panamá)</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Bank of Papua New Guinea</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Central Bank of Paraguay</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Central Reserve Bank of Peru</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Central Bank of the Philippines (Bangko Sentral ng Pilipinas)</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Narodowy Bank Polski</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Banco de Portugal</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
-    <t>Qatar Central Bank</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>National Bank of Romania</t>
-  </si>
-  <si>
     <t>Russian Federation</t>
   </si>
   <si>
-    <t>Central Bank of the Russian Federation</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>National Bank of Rwanda</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Central Bank of Samoa</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Central Bank of the Republic of San Marino</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Saudi Central Bank</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>National Bank of Serbia</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Central Bank of Seychelles</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>Bank of Sierra Leone</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>Monetary Authority of Singapore</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
-    <t>National Bank of Slovakia</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>Bank of Slovenia</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Central Bank of Solomon Islands</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>South African Reserve Bank</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Bank of Spain</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Central Bank of Sri Lanka</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Bank of Sudan</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Central Bank of Suriname</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Sveriges Riksbank</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Swiss National Bank</t>
-  </si>
-  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Central Bank of Syria</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>National Bank of the Republic of Tajikistan</t>
-  </si>
-  <si>
     <t>Tanzania, United Republic of</t>
   </si>
   <si>
-    <t>Bank of Tanzania</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Bank of Thailand</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>National Reserve Bank of Tonga</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>Central Bank of Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Central Bank of Tunisia</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>Central Bank of the Republic of Türkiye</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Central Bank of Turkmenistan</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Bank of Uganda</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>National Bank of Ukraine</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Central Bank of the United Arab Emirates</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Bank of England</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Federal Reserve Bank of Atlanta</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Boston</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Chicago</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Cleveland</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Dallas</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Kansas City</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Minneapolis</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of New York</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Philadelphia</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of Richmond</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of San Francisco</t>
-  </si>
-  <si>
-    <t>Federal Reserve Bank of St Louis</t>
-  </si>
-  <si>
-    <t>Board of Governors of the Federal Reserve System</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Central Bank of Uruguay</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Central Bank of the Republic of Uzbekistan</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Reserve Bank of Vanuatu</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Central Bank of Venezuela</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>State Bank of Vietnam</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Central Bank of Yemen</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Bank of Zambia</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Reserve Bank of Zimbabwe</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
-    <t>bank</t>
+    <t>Federal Reserve Bank</t>
+  </si>
+  <si>
+    <t>Other_ECB</t>
+  </si>
+  <si>
+    <t>Other_Basel</t>
+  </si>
+  <si>
+    <t>Basel Committee</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>Other_IMF</t>
+  </si>
+  <si>
+    <t>European Monetary Institute</t>
+  </si>
+  <si>
+    <t>Financial Services Authority</t>
+  </si>
+  <si>
+    <t>National Bureau of Economic Research</t>
+  </si>
+  <si>
+    <t>Organisation for Economic Co-operation and Development (OECD)</t>
+  </si>
+  <si>
+    <t>Other_EMI</t>
+  </si>
+  <si>
+    <t>Other_FSA</t>
+  </si>
+  <si>
+    <t>Other_NBER</t>
+  </si>
+  <si>
+    <t>Other_OECD</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>Bank of Afghanistan</t>
+  </si>
+  <si>
+    <t>Bank of Albania</t>
+  </si>
+  <si>
+    <t>Bank of Algeria</t>
+  </si>
+  <si>
+    <t>National Bank of Angola</t>
+  </si>
+  <si>
+    <t>Central Bank of Argentina</t>
+  </si>
+  <si>
+    <t>Central Bank of Armenia</t>
+  </si>
+  <si>
+    <t>Central Bank of Aruba</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Australia</t>
+  </si>
+  <si>
+    <t>Oesterreichische Nationalbank, the Austrian Central Bank</t>
+  </si>
+  <si>
+    <t>The Central Bank of the Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t>Central Bank of The Bahamas</t>
+  </si>
+  <si>
+    <t>Central Bank of Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh Bank</t>
+  </si>
+  <si>
+    <t>Central Bank of Barbados</t>
+  </si>
+  <si>
+    <t>National Bank of the Republic of Belarus</t>
+  </si>
+  <si>
+    <t>National Bank of Belgium</t>
+  </si>
+  <si>
+    <t>Central Bank of Belize</t>
+  </si>
+  <si>
+    <t>Central Bank of West African States (BCEAO)</t>
+  </si>
+  <si>
+    <t>Bermuda Monetary Authority</t>
+  </si>
+  <si>
+    <t>Royal Monetary Authority of Bhutan</t>
+  </si>
+  <si>
+    <t>Central Bank of Bolivia</t>
+  </si>
+  <si>
+    <t>Central Bank of Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Bank of Botswana</t>
+  </si>
+  <si>
+    <t>Central Bank of Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam Central Bank</t>
+  </si>
+  <si>
+    <t>Bulgarian National Bank</t>
+  </si>
+  <si>
+    <t>Bank of the Republic of Burundi</t>
+  </si>
+  <si>
+    <t>National Bank of Cambodia</t>
+  </si>
+  <si>
+    <t>Bank of Central African States</t>
+  </si>
+  <si>
+    <t>Bank of Canada</t>
+  </si>
+  <si>
+    <t>Bank of Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands Monetary Authority</t>
+  </si>
+  <si>
+    <t>Central Bank of Chile</t>
+  </si>
+  <si>
+    <t>The People's Bank of China</t>
+  </si>
+  <si>
+    <t>Central Bank of Colombia</t>
+  </si>
+  <si>
+    <t>Central Bank of Congo</t>
+  </si>
+  <si>
+    <t>Central Bank of Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatian National Bank</t>
+  </si>
+  <si>
+    <t>Central Bank of Cuba</t>
+  </si>
+  <si>
+    <t>Central Bank of Cyprus</t>
+  </si>
+  <si>
+    <t>Czech National Bank</t>
+  </si>
+  <si>
+    <t>Danmarks Nationalbank</t>
+  </si>
+  <si>
+    <t>Central Bank of the Dominican Republic</t>
+  </si>
+  <si>
+    <t>Central Bank of Ecuador</t>
+  </si>
+  <si>
+    <t>Central Bank of Egypt</t>
+  </si>
+  <si>
+    <t>Central Reserve Bank of El Salvador</t>
+  </si>
+  <si>
+    <t>Bank of Estonia</t>
+  </si>
+  <si>
+    <t>The Central Bank of Eswatini</t>
+  </si>
+  <si>
+    <t>National Bank of Ethiopia</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Fiji</t>
+  </si>
+  <si>
+    <t>Bank of Finland</t>
+  </si>
+  <si>
+    <t>Bank of France</t>
+  </si>
+  <si>
+    <t>Central Bank of The Gambia</t>
+  </si>
+  <si>
+    <t>National Bank of Georgia</t>
+  </si>
+  <si>
+    <t>Deutsche Bundesbank</t>
+  </si>
+  <si>
+    <t>Bank of Ghana</t>
+  </si>
+  <si>
+    <t>Bank of Greece</t>
+  </si>
+  <si>
+    <t>Bank of Guatemala</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of Guinea</t>
+  </si>
+  <si>
+    <t>Bank of Guyana</t>
+  </si>
+  <si>
+    <t>Bank of the Republic of Haiti</t>
+  </si>
+  <si>
+    <t>Central Bank of Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong Monetary Authority</t>
+  </si>
+  <si>
+    <t>Magyar Nemzeti Bank</t>
+  </si>
+  <si>
+    <t>Central Bank of Iceland</t>
+  </si>
+  <si>
+    <t>Reserve Bank of India</t>
+  </si>
+  <si>
+    <t>Bank Indonesia</t>
+  </si>
+  <si>
+    <t>The Central Bank of the Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t>Central Bank of Iraq</t>
+  </si>
+  <si>
+    <t>Central Bank of Ireland</t>
+  </si>
+  <si>
+    <t>Bank of Israel</t>
+  </si>
+  <si>
+    <t>Bank of Italy</t>
+  </si>
+  <si>
+    <t>Bank of Jamaica</t>
+  </si>
+  <si>
+    <t>Bank of Japan</t>
+  </si>
+  <si>
+    <t>Central Bank of Jordan</t>
+  </si>
+  <si>
+    <t>National Bank of Kazakhstan</t>
+  </si>
+  <si>
+    <t>Central Bank of Kenya</t>
+  </si>
+  <si>
+    <t>Bank of Korea</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of Kosovo</t>
+  </si>
+  <si>
+    <t>Central Bank of Kuwait</t>
+  </si>
+  <si>
+    <t>National Bank of the Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Bank of the Lao PDR</t>
+  </si>
+  <si>
+    <t>Bank of Latvia</t>
+  </si>
+  <si>
+    <t>Central Bank of Lebanon</t>
+  </si>
+  <si>
+    <t>Central Bank of Lesotho</t>
+  </si>
+  <si>
+    <t>Central Bank of Liberia</t>
+  </si>
+  <si>
+    <t>Central Bank of Libya</t>
+  </si>
+  <si>
+    <t>Bank of Lithuania</t>
+  </si>
+  <si>
+    <t>Central Bank of Luxembourg</t>
+  </si>
+  <si>
+    <t>Monetary Authority of Macao</t>
+  </si>
+  <si>
+    <t>Banky Foiben'i Madagasikara</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Malawi</t>
+  </si>
+  <si>
+    <t>Central Bank of Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives Monetary Authority</t>
+  </si>
+  <si>
+    <t>Central Bank of Malta</t>
+  </si>
+  <si>
+    <t>Bank of Mauritius</t>
+  </si>
+  <si>
+    <t>Bank of Mexico</t>
+  </si>
+  <si>
+    <t>National Bank of Moldova</t>
+  </si>
+  <si>
+    <t>Bank of Mongolia</t>
+  </si>
+  <si>
+    <t>Central Bank of Montenegro</t>
+  </si>
+  <si>
+    <t>Bank Al-Maghrib (Central Bank of Morocco)</t>
+  </si>
+  <si>
+    <t>Bank of Mozambique</t>
+  </si>
+  <si>
+    <t>Central Bank of Myanmar</t>
+  </si>
+  <si>
+    <t>Bank of Namibia</t>
+  </si>
+  <si>
+    <t>Central Bank of Nepal (Nepal Rastra Bank)</t>
+  </si>
+  <si>
+    <t>De Nederlandsche Bank</t>
+  </si>
+  <si>
+    <t>Reserve Bank of New Zealand</t>
+  </si>
+  <si>
+    <t>Central Bank of Nicaragua</t>
+  </si>
+  <si>
+    <t>Central Bank of Nigeria</t>
+  </si>
+  <si>
+    <t>National Bank of the Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>Central Bank of Norway</t>
+  </si>
+  <si>
+    <t>Central Bank of Oman</t>
+  </si>
+  <si>
+    <t>Eastern Caribbean Central Bank</t>
+  </si>
+  <si>
+    <t>State Bank of Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine Monetary Authority</t>
+  </si>
+  <si>
+    <t>National Bank of Panama (Banco Nacional de Panamá)</t>
+  </si>
+  <si>
+    <t>Bank of Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Central Bank of Paraguay</t>
+  </si>
+  <si>
+    <t>Central Reserve Bank of Peru</t>
+  </si>
+  <si>
+    <t>Central Bank of the Philippines (Bangko Sentral ng Pilipinas)</t>
+  </si>
+  <si>
+    <t>Narodowy Bank Polski</t>
+  </si>
+  <si>
+    <t>Banco de Portugal</t>
+  </si>
+  <si>
+    <t>Qatar Central Bank</t>
+  </si>
+  <si>
+    <t>National Bank of Romania</t>
+  </si>
+  <si>
+    <t>Central Bank of the Russian Federation</t>
+  </si>
+  <si>
+    <t>National Bank of Rwanda</t>
+  </si>
+  <si>
+    <t>Central Bank of Samoa</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of San Marino</t>
+  </si>
+  <si>
+    <t>Saudi Central Bank</t>
+  </si>
+  <si>
+    <t>National Bank of Serbia</t>
+  </si>
+  <si>
+    <t>Central Bank of Seychelles</t>
+  </si>
+  <si>
+    <t>Bank of Sierra Leone</t>
+  </si>
+  <si>
+    <t>Monetary Authority of Singapore</t>
+  </si>
+  <si>
+    <t>National Bank of Slovakia</t>
+  </si>
+  <si>
+    <t>Bank of Slovenia</t>
+  </si>
+  <si>
+    <t>Central Bank of Solomon Islands</t>
+  </si>
+  <si>
+    <t>South African Reserve Bank</t>
+  </si>
+  <si>
+    <t>Bank of Spain</t>
+  </si>
+  <si>
+    <t>Central Bank of Sri Lanka</t>
+  </si>
+  <si>
+    <t>Bank of Sudan</t>
+  </si>
+  <si>
+    <t>Central Bank of Suriname</t>
+  </si>
+  <si>
+    <t>Sveriges Riksbank</t>
+  </si>
+  <si>
+    <t>Swiss National Bank</t>
+  </si>
+  <si>
+    <t>Central Bank of Syria</t>
+  </si>
+  <si>
+    <t>National Bank of the Republic of Tajikistan</t>
+  </si>
+  <si>
+    <t>Bank of Tanzania</t>
+  </si>
+  <si>
+    <t>Bank of Thailand</t>
+  </si>
+  <si>
+    <t>National Reserve Bank of Tonga</t>
+  </si>
+  <si>
+    <t>Central Bank of Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Central Bank of Tunisia</t>
+  </si>
+  <si>
+    <t>Central Bank of Turkmenistan</t>
+  </si>
+  <si>
+    <t>Bank of Uganda</t>
+  </si>
+  <si>
+    <t>National Bank of Ukraine</t>
+  </si>
+  <si>
+    <t>Central Bank of the United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Bank of England</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Atlanta</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Boston</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Chicago</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Cleveland</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Dallas</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Kansas City</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Minneapolis</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of New York</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Philadelphia</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Richmond</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of San Francisco</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of St Louis</t>
+  </si>
+  <si>
+    <t>Board of Governors of the Federal Reserve System</t>
+  </si>
+  <si>
+    <t>Central Bank of Uruguay</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Vanuatu</t>
+  </si>
+  <si>
+    <t>Central Bank of Venezuela</t>
+  </si>
+  <si>
+    <t>State Bank of Vietnam</t>
+  </si>
+  <si>
+    <t>Central Bank of Yemen</t>
+  </si>
+  <si>
+    <t>Bank of Zambia</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Zimbabwe</t>
+  </si>
+  <si>
+    <t>European Central Bank</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of Turkiye</t>
+  </si>
+  <si>
+    <t>Other_BIS</t>
+  </si>
+  <si>
+    <t>Bank for International Settlements</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Central Bank of Curacao and Sint Maarten</t>
   </si>
 </sst>
 </file>
@@ -1691,24 +1736,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F8E7C8-9025-49D8-B001-CB76908593F5}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,1527 +1761,1591 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>287</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>291</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="B185" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>348</v>
+        <v>171</v>
       </c>
       <c r="B188" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>354</v>
+        <v>174</v>
       </c>
       <c r="B191" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>178</v>
+      </c>
+      <c r="B194" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>179</v>
+      </c>
+      <c r="B195" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>182</v>
+      </c>
+      <c r="B196" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>187</v>
+      </c>
+      <c r="B197" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>188</v>
+      </c>
+      <c r="B198" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>189</v>
+      </c>
+      <c r="B199" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>190</v>
+      </c>
+      <c r="B200" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
